--- a/nix_shjarback_ois_mortality_preprint/data/texas/tx_county_hospital.xlsx
+++ b/nix_shjarback_ois_mortality_preprint/data/texas/tx_county_hospital.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10713"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/johnshjarback/Desktop/TX AG Data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://unomail-my.sharepoint.com/personal/jnix_unomaha_edu/Documents/MANUSCRIPTS/Under_Review/Nix &amp; Shjarback - County OIS Fatality Rates/Data/Texas/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A95B87D6-AC51-9249-A3AB-00E1AFE10B0C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{63771D20-35E1-4B81-81BC-2056F596B9A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="460" windowWidth="13340" windowHeight="16080" xr2:uid="{4EDE3E5D-1E61-A342-BA80-63761A7FD373}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4EDE3E5D-1E61-A342-BA80-63761A7FD373}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="260">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="263">
   <si>
     <t>Anderson</t>
   </si>
@@ -805,6 +805,15 @@
   </si>
   <si>
     <t>total_level2</t>
+  </si>
+  <si>
+    <t>pop_2010</t>
+  </si>
+  <si>
+    <t>rucc_2013</t>
+  </si>
+  <si>
+    <t>metro_non</t>
   </si>
 </sst>
 </file>
@@ -1156,20 +1165,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F093BDD-D3C9-5F4A-BA16-13D6BF61DEE7}">
-  <dimension ref="A1:F255"/>
+  <dimension ref="A1:I255"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A227" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="E258" sqref="E258"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.83203125" customWidth="1"/>
+    <col min="1" max="1" width="17.875" customWidth="1"/>
     <col min="3" max="3" width="12" customWidth="1"/>
-    <col min="4" max="4" width="11.6640625" customWidth="1"/>
+    <col min="4" max="4" width="11.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>257</v>
       </c>
@@ -1188,8 +1197,17 @@
       <c r="F1" t="s">
         <v>259</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G1" t="s">
+        <v>260</v>
+      </c>
+      <c r="H1" t="s">
+        <v>261</v>
+      </c>
+      <c r="I1" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -1208,8 +1226,17 @@
       <c r="F2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G2">
+        <v>58458</v>
+      </c>
+      <c r="H2">
+        <v>7</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -1228,8 +1255,17 @@
       <c r="F3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G3">
+        <v>14786</v>
+      </c>
+      <c r="H3">
+        <v>6</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -1248,8 +1284,17 @@
       <c r="F4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G4">
+        <v>86771</v>
+      </c>
+      <c r="H4">
+        <v>5</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -1268,8 +1313,17 @@
       <c r="F5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G5">
+        <v>23158</v>
+      </c>
+      <c r="H5">
+        <v>2</v>
+      </c>
+      <c r="I5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -1288,8 +1342,17 @@
       <c r="F6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G6">
+        <v>9054</v>
+      </c>
+      <c r="H6">
+        <v>3</v>
+      </c>
+      <c r="I6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -1308,8 +1371,17 @@
       <c r="F7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G7">
+        <v>1901</v>
+      </c>
+      <c r="H7">
+        <v>2</v>
+      </c>
+      <c r="I7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -1328,8 +1400,17 @@
       <c r="F8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G8">
+        <v>44911</v>
+      </c>
+      <c r="H8">
+        <v>1</v>
+      </c>
+      <c r="I8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -1348,8 +1429,17 @@
       <c r="F9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G9">
+        <v>28417</v>
+      </c>
+      <c r="H9">
+        <v>1</v>
+      </c>
+      <c r="I9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -1368,8 +1458,17 @@
       <c r="F10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G10">
+        <v>7165</v>
+      </c>
+      <c r="H10">
+        <v>7</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -1388,8 +1487,17 @@
       <c r="F11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G11">
+        <v>20485</v>
+      </c>
+      <c r="H11">
+        <v>1</v>
+      </c>
+      <c r="I11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -1408,8 +1516,17 @@
       <c r="F12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G12">
+        <v>74171</v>
+      </c>
+      <c r="H12">
+        <v>1</v>
+      </c>
+      <c r="I12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>11</v>
       </c>
@@ -1428,8 +1545,17 @@
       <c r="F13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G13">
+        <v>3726</v>
+      </c>
+      <c r="H13">
+        <v>8</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>12</v>
       </c>
@@ -1448,8 +1574,17 @@
       <c r="F14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G14">
+        <v>31861</v>
+      </c>
+      <c r="H14">
+        <v>6</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>13</v>
       </c>
@@ -1468,8 +1603,17 @@
       <c r="F15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G15">
+        <v>310235</v>
+      </c>
+      <c r="H15">
+        <v>2</v>
+      </c>
+      <c r="I15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>14</v>
       </c>
@@ -1488,8 +1632,17 @@
       <c r="F16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G16">
+        <v>1714773</v>
+      </c>
+      <c r="H16">
+        <v>1</v>
+      </c>
+      <c r="I16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>15</v>
       </c>
@@ -1508,8 +1661,17 @@
       <c r="F17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G17">
+        <v>10497</v>
+      </c>
+      <c r="H17">
+        <v>8</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>16</v>
       </c>
@@ -1528,8 +1690,17 @@
       <c r="F18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G18">
+        <v>641</v>
+      </c>
+      <c r="H18">
+        <v>8</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>17</v>
       </c>
@@ -1548,8 +1719,17 @@
       <c r="F19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G19">
+        <v>18212</v>
+      </c>
+      <c r="H19">
+        <v>6</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>18</v>
       </c>
@@ -1568,8 +1748,17 @@
       <c r="F20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G20">
+        <v>92565</v>
+      </c>
+      <c r="H20">
+        <v>3</v>
+      </c>
+      <c r="I20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>19</v>
       </c>
@@ -1588,8 +1777,17 @@
       <c r="F21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G21">
+        <v>313166</v>
+      </c>
+      <c r="H21">
+        <v>1</v>
+      </c>
+      <c r="I21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>20</v>
       </c>
@@ -1608,8 +1806,17 @@
       <c r="F22">
         <v>1</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G22">
+        <v>194851</v>
+      </c>
+      <c r="H22">
+        <v>3</v>
+      </c>
+      <c r="I22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>21</v>
       </c>
@@ -1628,8 +1835,17 @@
       <c r="F23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G23">
+        <v>9232</v>
+      </c>
+      <c r="H23">
+        <v>7</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>22</v>
       </c>
@@ -1648,8 +1864,17 @@
       <c r="F24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G24">
+        <v>1637</v>
+      </c>
+      <c r="H24">
+        <v>9</v>
+      </c>
+      <c r="I24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>23</v>
       </c>
@@ -1668,8 +1893,17 @@
       <c r="F25">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G25">
+        <v>7223</v>
+      </c>
+      <c r="H25">
+        <v>7</v>
+      </c>
+      <c r="I25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>24</v>
       </c>
@@ -1688,8 +1922,17 @@
       <c r="F26">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G26">
+        <v>38106</v>
+      </c>
+      <c r="H26">
+        <v>5</v>
+      </c>
+      <c r="I26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>25</v>
       </c>
@@ -1708,8 +1951,17 @@
       <c r="F27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G27">
+        <v>17187</v>
+      </c>
+      <c r="H27">
+        <v>3</v>
+      </c>
+      <c r="I27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>26</v>
       </c>
@@ -1728,8 +1980,17 @@
       <c r="F28">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G28">
+        <v>42750</v>
+      </c>
+      <c r="H28">
+        <v>6</v>
+      </c>
+      <c r="I28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>27</v>
       </c>
@@ -1748,8 +2009,17 @@
       <c r="F29">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G29">
+        <v>38066</v>
+      </c>
+      <c r="H29">
+        <v>1</v>
+      </c>
+      <c r="I29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>28</v>
       </c>
@@ -1768,8 +2038,17 @@
       <c r="F30">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G30">
+        <v>21381</v>
+      </c>
+      <c r="H30">
+        <v>6</v>
+      </c>
+      <c r="I30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>29</v>
       </c>
@@ -1788,8 +2067,17 @@
       <c r="F31">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G31">
+        <v>13544</v>
+      </c>
+      <c r="H31">
+        <v>3</v>
+      </c>
+      <c r="I31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>30</v>
       </c>
@@ -1808,8 +2096,17 @@
       <c r="F32">
         <v>1</v>
       </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G32">
+        <v>406220</v>
+      </c>
+      <c r="H32">
+        <v>2</v>
+      </c>
+      <c r="I32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>31</v>
       </c>
@@ -1828,8 +2125,17 @@
       <c r="F33">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G33">
+        <v>12401</v>
+      </c>
+      <c r="H33">
+        <v>6</v>
+      </c>
+      <c r="I33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>32</v>
       </c>
@@ -1848,8 +2154,17 @@
       <c r="F34">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G34">
+        <v>6182</v>
+      </c>
+      <c r="H34">
+        <v>2</v>
+      </c>
+      <c r="I34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>33</v>
       </c>
@@ -1868,8 +2183,17 @@
       <c r="F35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G35">
+        <v>30464</v>
+      </c>
+      <c r="H35">
+        <v>6</v>
+      </c>
+      <c r="I35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>34</v>
       </c>
@@ -1888,8 +2212,17 @@
       <c r="F36">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G36">
+        <v>8062</v>
+      </c>
+      <c r="H36">
+        <v>6</v>
+      </c>
+      <c r="I36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>35</v>
       </c>
@@ -1908,8 +2241,17 @@
       <c r="F37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G37">
+        <v>35096</v>
+      </c>
+      <c r="H37">
+        <v>1</v>
+      </c>
+      <c r="I37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>36</v>
       </c>
@@ -1928,8 +2270,17 @@
       <c r="F38">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G38">
+        <v>50845</v>
+      </c>
+      <c r="H38">
+        <v>6</v>
+      </c>
+      <c r="I38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>37</v>
       </c>
@@ -1948,8 +2299,17 @@
       <c r="F39">
         <v>0</v>
       </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G39">
+        <v>7041</v>
+      </c>
+      <c r="H39">
+        <v>7</v>
+      </c>
+      <c r="I39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>38</v>
       </c>
@@ -1968,8 +2328,17 @@
       <c r="F40">
         <v>0</v>
       </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G40">
+        <v>10752</v>
+      </c>
+      <c r="H40">
+        <v>3</v>
+      </c>
+      <c r="I40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>39</v>
       </c>
@@ -1988,8 +2357,17 @@
       <c r="F41">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G41">
+        <v>3127</v>
+      </c>
+      <c r="H41">
+        <v>9</v>
+      </c>
+      <c r="I41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>40</v>
       </c>
@@ -2008,8 +2386,17 @@
       <c r="F42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G42">
+        <v>3320</v>
+      </c>
+      <c r="H42">
+        <v>8</v>
+      </c>
+      <c r="I42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>41</v>
       </c>
@@ -2028,8 +2415,17 @@
       <c r="F43">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G43">
+        <v>8895</v>
+      </c>
+      <c r="H43">
+        <v>6</v>
+      </c>
+      <c r="I43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>42</v>
       </c>
@@ -2048,8 +2444,17 @@
       <c r="F44">
         <v>1</v>
       </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G44">
+        <v>782341</v>
+      </c>
+      <c r="H44">
+        <v>1</v>
+      </c>
+      <c r="I44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>43</v>
       </c>
@@ -2068,8 +2473,17 @@
       <c r="F45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G45">
+        <v>3057</v>
+      </c>
+      <c r="H45">
+        <v>9</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>44</v>
       </c>
@@ -2088,8 +2502,17 @@
       <c r="F46">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G46">
+        <v>20874</v>
+      </c>
+      <c r="H46">
+        <v>6</v>
+      </c>
+      <c r="I46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>45</v>
       </c>
@@ -2108,8 +2531,17 @@
       <c r="F47">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G47">
+        <v>108472</v>
+      </c>
+      <c r="H47">
+        <v>1</v>
+      </c>
+      <c r="I47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>46</v>
       </c>
@@ -2128,8 +2560,17 @@
       <c r="F48">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G48">
+        <v>13974</v>
+      </c>
+      <c r="H48">
+        <v>7</v>
+      </c>
+      <c r="I48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>47</v>
       </c>
@@ -2148,8 +2589,17 @@
       <c r="F49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G49">
+        <v>4087</v>
+      </c>
+      <c r="H49">
+        <v>8</v>
+      </c>
+      <c r="I49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>48</v>
       </c>
@@ -2168,8 +2618,17 @@
       <c r="F50">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G50">
+        <v>38437</v>
+      </c>
+      <c r="H50">
+        <v>6</v>
+      </c>
+      <c r="I50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>49</v>
       </c>
@@ -2188,8 +2647,17 @@
       <c r="F51">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G51">
+        <v>75388</v>
+      </c>
+      <c r="H51">
+        <v>2</v>
+      </c>
+      <c r="I51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>50</v>
       </c>
@@ -2208,8 +2676,17 @@
       <c r="F52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G52">
+        <v>1505</v>
+      </c>
+      <c r="H52">
+        <v>9</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>51</v>
       </c>
@@ -2228,8 +2705,17 @@
       <c r="F53">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G53">
+        <v>4375</v>
+      </c>
+      <c r="H53">
+        <v>6</v>
+      </c>
+      <c r="I53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>52</v>
       </c>
@@ -2248,8 +2734,17 @@
       <c r="F54">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G54">
+        <v>3719</v>
+      </c>
+      <c r="H54">
+        <v>7</v>
+      </c>
+      <c r="I54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>53</v>
       </c>
@@ -2268,8 +2763,17 @@
       <c r="F55">
         <v>0</v>
       </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G55">
+        <v>6059</v>
+      </c>
+      <c r="H55">
+        <v>2</v>
+      </c>
+      <c r="I55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>54</v>
       </c>
@@ -2288,8 +2792,17 @@
       <c r="F56">
         <v>0</v>
       </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G56">
+        <v>2398</v>
+      </c>
+      <c r="H56">
+        <v>9</v>
+      </c>
+      <c r="I56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>55</v>
       </c>
@@ -2308,8 +2821,17 @@
       <c r="F57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G57">
+        <v>6703</v>
+      </c>
+      <c r="H57">
+        <v>7</v>
+      </c>
+      <c r="I57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>56</v>
       </c>
@@ -2328,8 +2850,17 @@
       <c r="F58">
         <v>1</v>
       </c>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G58">
+        <v>2368139</v>
+      </c>
+      <c r="H58">
+        <v>1</v>
+      </c>
+      <c r="I58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>57</v>
       </c>
@@ -2348,8 +2879,17 @@
       <c r="F59">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G59">
+        <v>13833</v>
+      </c>
+      <c r="H59">
+        <v>7</v>
+      </c>
+      <c r="I59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>58</v>
       </c>
@@ -2368,8 +2908,17 @@
       <c r="F60">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G60">
+        <v>19372</v>
+      </c>
+      <c r="H60">
+        <v>6</v>
+      </c>
+      <c r="I60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>59</v>
       </c>
@@ -2388,8 +2937,17 @@
       <c r="F61">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G61">
+        <v>5231</v>
+      </c>
+      <c r="H61">
+        <v>8</v>
+      </c>
+      <c r="I61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>60</v>
       </c>
@@ -2408,8 +2966,17 @@
       <c r="F62">
         <v>1</v>
       </c>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G62">
+        <v>662614</v>
+      </c>
+      <c r="H62">
+        <v>1</v>
+      </c>
+      <c r="I62">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>61</v>
       </c>
@@ -2428,8 +2995,17 @@
       <c r="F63">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G63">
+        <v>20097</v>
+      </c>
+      <c r="H63">
+        <v>6</v>
+      </c>
+      <c r="I63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>62</v>
       </c>
@@ -2448,8 +3024,17 @@
       <c r="F64">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G64">
+        <v>2444</v>
+      </c>
+      <c r="H64">
+        <v>8</v>
+      </c>
+      <c r="I64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>63</v>
       </c>
@@ -2468,8 +3053,17 @@
       <c r="F65">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G65">
+        <v>9996</v>
+      </c>
+      <c r="H65">
+        <v>6</v>
+      </c>
+      <c r="I65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>64</v>
       </c>
@@ -2488,8 +3082,17 @@
       <c r="F66">
         <v>0</v>
       </c>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G66">
+        <v>3677</v>
+      </c>
+      <c r="H66">
+        <v>8</v>
+      </c>
+      <c r="I66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>65</v>
       </c>
@@ -2508,8 +3111,17 @@
       <c r="F67">
         <v>0</v>
       </c>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G67">
+        <v>11782</v>
+      </c>
+      <c r="H67">
+        <v>7</v>
+      </c>
+      <c r="I67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>66</v>
       </c>
@@ -2528,8 +3140,17 @@
       <c r="F68">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G68">
+        <v>18583</v>
+      </c>
+      <c r="H68">
+        <v>6</v>
+      </c>
+      <c r="I68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>67</v>
       </c>
@@ -2548,8 +3169,17 @@
       <c r="F69">
         <v>1</v>
       </c>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G69">
+        <v>137130</v>
+      </c>
+      <c r="H69">
+        <v>3</v>
+      </c>
+      <c r="I69">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>68</v>
       </c>
@@ -2568,8 +3198,17 @@
       <c r="F70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G70">
+        <v>2002</v>
+      </c>
+      <c r="H70">
+        <v>9</v>
+      </c>
+      <c r="I70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>69</v>
       </c>
@@ -2588,8 +3227,17 @@
       <c r="F71">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G71">
+        <v>149610</v>
+      </c>
+      <c r="H71">
+        <v>1</v>
+      </c>
+      <c r="I71">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>70</v>
       </c>
@@ -2608,8 +3256,17 @@
       <c r="F72">
         <v>1</v>
       </c>
-    </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G72">
+        <v>800647</v>
+      </c>
+      <c r="H72">
+        <v>2</v>
+      </c>
+      <c r="I72">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>71</v>
       </c>
@@ -2628,8 +3285,17 @@
       <c r="F73">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G73">
+        <v>37890</v>
+      </c>
+      <c r="H73">
+        <v>4</v>
+      </c>
+      <c r="I73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>72</v>
       </c>
@@ -2648,8 +3314,17 @@
       <c r="F74">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G74">
+        <v>17866</v>
+      </c>
+      <c r="H74">
+        <v>2</v>
+      </c>
+      <c r="I74">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>73</v>
       </c>
@@ -2668,8 +3343,17 @@
       <c r="F75">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G75">
+        <v>33915</v>
+      </c>
+      <c r="H75">
+        <v>6</v>
+      </c>
+      <c r="I75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>74</v>
       </c>
@@ -2688,8 +3372,17 @@
       <c r="F76">
         <v>0</v>
       </c>
-    </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G76">
+        <v>24554</v>
+      </c>
+      <c r="H76">
+        <v>6</v>
+      </c>
+      <c r="I76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>75</v>
       </c>
@@ -2708,8 +3401,17 @@
       <c r="F77">
         <v>0</v>
       </c>
-    </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G77">
+        <v>3974</v>
+      </c>
+      <c r="H77">
+        <v>8</v>
+      </c>
+      <c r="I77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>76</v>
       </c>
@@ -2728,8 +3430,17 @@
       <c r="F78">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G78">
+        <v>6446</v>
+      </c>
+      <c r="H78">
+        <v>6</v>
+      </c>
+      <c r="I78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>77</v>
       </c>
@@ -2748,8 +3459,17 @@
       <c r="F79">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G79">
+        <v>1336</v>
+      </c>
+      <c r="H79">
+        <v>9</v>
+      </c>
+      <c r="I79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>78</v>
       </c>
@@ -2768,8 +3488,17 @@
       <c r="F80">
         <v>0</v>
       </c>
-    </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G80">
+        <v>585375</v>
+      </c>
+      <c r="H80">
+        <v>1</v>
+      </c>
+      <c r="I80">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>79</v>
       </c>
@@ -2788,8 +3517,17 @@
       <c r="F81">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G81">
+        <v>10605</v>
+      </c>
+      <c r="H81">
+        <v>7</v>
+      </c>
+      <c r="I81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>80</v>
       </c>
@@ -2808,8 +3546,17 @@
       <c r="F82">
         <v>0</v>
       </c>
-    </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G82">
+        <v>19816</v>
+      </c>
+      <c r="H82">
+        <v>7</v>
+      </c>
+      <c r="I82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>81</v>
       </c>
@@ -2828,8 +3575,17 @@
       <c r="F83">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G83">
+        <v>17217</v>
+      </c>
+      <c r="H83">
+        <v>6</v>
+      </c>
+      <c r="I83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>82</v>
       </c>
@@ -2848,8 +3604,17 @@
       <c r="F84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G84">
+        <v>17526</v>
+      </c>
+      <c r="H84">
+        <v>7</v>
+      </c>
+      <c r="I84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>83</v>
       </c>
@@ -2868,8 +3633,17 @@
       <c r="F85">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G85">
+        <v>291309</v>
+      </c>
+      <c r="H85">
+        <v>1</v>
+      </c>
+      <c r="I85">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>84</v>
       </c>
@@ -2888,8 +3662,17 @@
       <c r="F86">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G86">
+        <v>6461</v>
+      </c>
+      <c r="H86">
+        <v>6</v>
+      </c>
+      <c r="I86">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>85</v>
       </c>
@@ -2908,8 +3691,17 @@
       <c r="F87">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G87">
+        <v>24837</v>
+      </c>
+      <c r="H87">
+        <v>7</v>
+      </c>
+      <c r="I87">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>86</v>
       </c>
@@ -2928,8 +3720,17 @@
       <c r="F88">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G88">
+        <v>1226</v>
+      </c>
+      <c r="H88">
+        <v>8</v>
+      </c>
+      <c r="I88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>87</v>
       </c>
@@ -2948,8 +3749,17 @@
       <c r="F89">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G89">
+        <v>7210</v>
+      </c>
+      <c r="H89">
+        <v>3</v>
+      </c>
+      <c r="I89">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>88</v>
       </c>
@@ -2968,8 +3778,17 @@
       <c r="F90">
         <v>0</v>
       </c>
-    </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G90">
+        <v>19807</v>
+      </c>
+      <c r="H90">
+        <v>6</v>
+      </c>
+      <c r="I90">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>89</v>
       </c>
@@ -2988,8 +3807,17 @@
       <c r="F91">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G91">
+        <v>22535</v>
+      </c>
+      <c r="H91">
+        <v>6</v>
+      </c>
+      <c r="I91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>90</v>
       </c>
@@ -3008,8 +3836,17 @@
       <c r="F92">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G92">
+        <v>120877</v>
+      </c>
+      <c r="H92">
+        <v>3</v>
+      </c>
+      <c r="I92">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>91</v>
       </c>
@@ -3028,8 +3865,17 @@
       <c r="F93">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G93">
+        <v>121730</v>
+      </c>
+      <c r="H93">
+        <v>3</v>
+      </c>
+      <c r="I93">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>92</v>
       </c>
@@ -3048,8 +3894,17 @@
       <c r="F94">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G94">
+        <v>26604</v>
+      </c>
+      <c r="H94">
+        <v>6</v>
+      </c>
+      <c r="I94">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>93</v>
       </c>
@@ -3068,8 +3923,17 @@
       <c r="F95">
         <v>0</v>
       </c>
-    </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G95">
+        <v>131533</v>
+      </c>
+      <c r="H95">
+        <v>1</v>
+      </c>
+      <c r="I95">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>94</v>
       </c>
@@ -3088,8 +3952,17 @@
       <c r="F96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G96">
+        <v>36273</v>
+      </c>
+      <c r="H96">
+        <v>4</v>
+      </c>
+      <c r="I96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>95</v>
       </c>
@@ -3108,8 +3981,17 @@
       <c r="F97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G97">
+        <v>3353</v>
+      </c>
+      <c r="H97">
+        <v>9</v>
+      </c>
+      <c r="I97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>96</v>
       </c>
@@ -3128,8 +4010,17 @@
       <c r="F98">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G98">
+        <v>8517</v>
+      </c>
+      <c r="H98">
+        <v>6</v>
+      </c>
+      <c r="I98">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>97</v>
       </c>
@@ -3148,8 +4039,17 @@
       <c r="F99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G99">
+        <v>5613</v>
+      </c>
+      <c r="H99">
+        <v>7</v>
+      </c>
+      <c r="I99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>98</v>
       </c>
@@ -3168,8 +4068,17 @@
       <c r="F100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G100">
+        <v>4139</v>
+      </c>
+      <c r="H100">
+        <v>9</v>
+      </c>
+      <c r="I100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>99</v>
       </c>
@@ -3188,8 +4097,17 @@
       <c r="F101">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G101">
+        <v>54635</v>
+      </c>
+      <c r="H101">
+        <v>2</v>
+      </c>
+      <c r="I101">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>100</v>
       </c>
@@ -3208,8 +4126,17 @@
       <c r="F102">
         <v>1</v>
       </c>
-    </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G102">
+        <v>4092459</v>
+      </c>
+      <c r="H102">
+        <v>1</v>
+      </c>
+      <c r="I102">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>101</v>
       </c>
@@ -3228,8 +4155,17 @@
       <c r="F103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G103">
+        <v>65631</v>
+      </c>
+      <c r="H103">
+        <v>4</v>
+      </c>
+      <c r="I103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>102</v>
       </c>
@@ -3248,8 +4184,17 @@
       <c r="F104">
         <v>0</v>
       </c>
-    </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G104">
+        <v>6062</v>
+      </c>
+      <c r="H104">
+        <v>7</v>
+      </c>
+      <c r="I104">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>103</v>
       </c>
@@ -3268,8 +4213,17 @@
       <c r="F105">
         <v>0</v>
       </c>
-    </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G105">
+        <v>5899</v>
+      </c>
+      <c r="H105">
+        <v>6</v>
+      </c>
+      <c r="I105">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>104</v>
       </c>
@@ -3288,8 +4242,17 @@
       <c r="F106">
         <v>0</v>
       </c>
-    </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G106">
+        <v>157107</v>
+      </c>
+      <c r="H106">
+        <v>1</v>
+      </c>
+      <c r="I106">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>105</v>
       </c>
@@ -3308,8 +4271,17 @@
       <c r="F107">
         <v>0</v>
       </c>
-    </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G107">
+        <v>3807</v>
+      </c>
+      <c r="H107">
+        <v>7</v>
+      </c>
+      <c r="I107">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>106</v>
       </c>
@@ -3328,8 +4300,17 @@
       <c r="F108">
         <v>0</v>
       </c>
-    </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G108">
+        <v>78532</v>
+      </c>
+      <c r="H108">
+        <v>4</v>
+      </c>
+      <c r="I108">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>107</v>
       </c>
@@ -3348,8 +4329,17 @@
       <c r="F109">
         <v>0</v>
       </c>
-    </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G109">
+        <v>774769</v>
+      </c>
+      <c r="H109">
+        <v>2</v>
+      </c>
+      <c r="I109">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>108</v>
       </c>
@@ -3368,8 +4358,17 @@
       <c r="F110">
         <v>0</v>
       </c>
-    </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G110">
+        <v>35089</v>
+      </c>
+      <c r="H110">
+        <v>6</v>
+      </c>
+      <c r="I110">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>109</v>
       </c>
@@ -3388,8 +4387,17 @@
       <c r="F111">
         <v>0</v>
       </c>
-    </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G111">
+        <v>22935</v>
+      </c>
+      <c r="H111">
+        <v>6</v>
+      </c>
+      <c r="I111">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>110</v>
       </c>
@@ -3408,8 +4416,17 @@
       <c r="F112">
         <v>0</v>
       </c>
-    </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G112">
+        <v>51182</v>
+      </c>
+      <c r="H112">
+        <v>1</v>
+      </c>
+      <c r="I112">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>111</v>
       </c>
@@ -3428,8 +4445,17 @@
       <c r="F113">
         <v>0</v>
       </c>
-    </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G113">
+        <v>35161</v>
+      </c>
+      <c r="H113">
+        <v>6</v>
+      </c>
+      <c r="I113">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>112</v>
       </c>
@@ -3448,8 +4474,17 @@
       <c r="F114">
         <v>0</v>
       </c>
-    </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G114">
+        <v>23732</v>
+      </c>
+      <c r="H114">
+        <v>7</v>
+      </c>
+      <c r="I114">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>113</v>
       </c>
@@ -3468,8 +4503,17 @@
       <c r="F115">
         <v>0</v>
       </c>
-    </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G115">
+        <v>35012</v>
+      </c>
+      <c r="H115">
+        <v>4</v>
+      </c>
+      <c r="I115">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>114</v>
       </c>
@@ -3488,8 +4532,17 @@
       <c r="F116">
         <v>0</v>
       </c>
-    </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G116">
+        <v>3476</v>
+      </c>
+      <c r="H116">
+        <v>2</v>
+      </c>
+      <c r="I116">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>115</v>
       </c>
@@ -3508,8 +4561,17 @@
       <c r="F117">
         <v>0</v>
       </c>
-    </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G117">
+        <v>86129</v>
+      </c>
+      <c r="H117">
+        <v>1</v>
+      </c>
+      <c r="I117">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>116</v>
       </c>
@@ -3528,8 +4590,17 @@
       <c r="F118">
         <v>0</v>
       </c>
-    </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G118">
+        <v>22150</v>
+      </c>
+      <c r="H118">
+        <v>6</v>
+      </c>
+      <c r="I118">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>117</v>
       </c>
@@ -3548,8 +4619,17 @@
       <c r="F119">
         <v>0</v>
       </c>
-    </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G119">
+        <v>1599</v>
+      </c>
+      <c r="H119">
+        <v>3</v>
+      </c>
+      <c r="I119">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>118</v>
       </c>
@@ -3568,8 +4648,17 @@
       <c r="F120">
         <v>0</v>
       </c>
-    </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G120">
+        <v>9044</v>
+      </c>
+      <c r="H120">
+        <v>6</v>
+      </c>
+      <c r="I120">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>119</v>
       </c>
@@ -3588,8 +4677,17 @@
       <c r="F121">
         <v>0</v>
       </c>
-    </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G121">
+        <v>14075</v>
+      </c>
+      <c r="H121">
+        <v>6</v>
+      </c>
+      <c r="I121">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>120</v>
       </c>
@@ -3608,8 +4706,17 @@
       <c r="F122">
         <v>0</v>
       </c>
-    </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G122">
+        <v>35710</v>
+      </c>
+      <c r="H122">
+        <v>6</v>
+      </c>
+      <c r="I122">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>121</v>
       </c>
@@ -3628,8 +4735,17 @@
       <c r="F123">
         <v>0</v>
       </c>
-    </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G123">
+        <v>2342</v>
+      </c>
+      <c r="H123">
+        <v>9</v>
+      </c>
+      <c r="I123">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>122</v>
       </c>
@@ -3648,8 +4764,17 @@
       <c r="F124">
         <v>0</v>
       </c>
-    </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G124">
+        <v>252273</v>
+      </c>
+      <c r="H124">
+        <v>2</v>
+      </c>
+      <c r="I124">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>123</v>
       </c>
@@ -3668,8 +4793,17 @@
       <c r="F125">
         <v>0</v>
       </c>
-    </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G125">
+        <v>5300</v>
+      </c>
+      <c r="H125">
+        <v>6</v>
+      </c>
+      <c r="I125">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>124</v>
       </c>
@@ -3688,8 +4822,17 @@
       <c r="F126">
         <v>0</v>
       </c>
-    </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G126">
+        <v>40838</v>
+      </c>
+      <c r="H126">
+        <v>4</v>
+      </c>
+      <c r="I126">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>125</v>
       </c>
@@ -3708,8 +4851,17 @@
       <c r="F127">
         <v>0</v>
       </c>
-    </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G127">
+        <v>150934</v>
+      </c>
+      <c r="H127">
+        <v>1</v>
+      </c>
+      <c r="I127">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>126</v>
       </c>
@@ -3728,8 +4880,17 @@
       <c r="F128">
         <v>0</v>
       </c>
-    </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G128">
+        <v>20202</v>
+      </c>
+      <c r="H128">
+        <v>3</v>
+      </c>
+      <c r="I128">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>127</v>
       </c>
@@ -3748,8 +4909,17 @@
       <c r="F129">
         <v>0</v>
       </c>
-    </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G129">
+        <v>14824</v>
+      </c>
+      <c r="H129">
+        <v>6</v>
+      </c>
+      <c r="I129">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>128</v>
       </c>
@@ -3768,8 +4938,17 @@
       <c r="F130">
         <v>0</v>
       </c>
-    </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G130">
+        <v>103350</v>
+      </c>
+      <c r="H130">
+        <v>1</v>
+      </c>
+      <c r="I130">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>129</v>
       </c>
@@ -3788,8 +4967,17 @@
       <c r="F131">
         <v>0</v>
       </c>
-    </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G131">
+        <v>33410</v>
+      </c>
+      <c r="H131">
+        <v>1</v>
+      </c>
+      <c r="I131">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>130</v>
       </c>
@@ -3808,8 +4996,17 @@
       <c r="F132">
         <v>0</v>
       </c>
-    </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G132">
+        <v>416</v>
+      </c>
+      <c r="H132">
+        <v>9</v>
+      </c>
+      <c r="I132">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>131</v>
       </c>
@@ -3828,8 +5025,17 @@
       <c r="F133">
         <v>0</v>
       </c>
-    </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G133">
+        <v>808</v>
+      </c>
+      <c r="H133">
+        <v>9</v>
+      </c>
+      <c r="I133">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>132</v>
       </c>
@@ -3848,8 +5054,17 @@
       <c r="F134">
         <v>0</v>
       </c>
-    </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G134">
+        <v>49625</v>
+      </c>
+      <c r="H134">
+        <v>4</v>
+      </c>
+      <c r="I134">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>133</v>
       </c>
@@ -3868,8 +5083,17 @@
       <c r="F135">
         <v>0</v>
       </c>
-    </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G135">
+        <v>4607</v>
+      </c>
+      <c r="H135">
+        <v>7</v>
+      </c>
+      <c r="I135">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>134</v>
       </c>
@@ -3888,8 +5112,17 @@
       <c r="F136">
         <v>0</v>
       </c>
-    </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G136">
+        <v>286</v>
+      </c>
+      <c r="H136">
+        <v>9</v>
+      </c>
+      <c r="I136">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>135</v>
       </c>
@@ -3908,8 +5141,17 @@
       <c r="F137">
         <v>0</v>
       </c>
-    </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G137">
+        <v>3598</v>
+      </c>
+      <c r="H137">
+        <v>7</v>
+      </c>
+      <c r="I137">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>136</v>
       </c>
@@ -3928,8 +5170,17 @@
       <c r="F138">
         <v>0</v>
       </c>
-    </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G138">
+        <v>32061</v>
+      </c>
+      <c r="H138">
+        <v>4</v>
+      </c>
+      <c r="I138">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>137</v>
       </c>
@@ -3948,8 +5199,17 @@
       <c r="F139">
         <v>0</v>
       </c>
-    </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G139">
+        <v>3719</v>
+      </c>
+      <c r="H139">
+        <v>9</v>
+      </c>
+      <c r="I139">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>138</v>
       </c>
@@ -3968,8 +5228,17 @@
       <c r="F140">
         <v>0</v>
       </c>
-    </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G140">
+        <v>49793</v>
+      </c>
+      <c r="H140">
+        <v>5</v>
+      </c>
+      <c r="I140">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>139</v>
       </c>
@@ -3988,8 +5257,17 @@
       <c r="F141">
         <v>0</v>
       </c>
-    </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G141">
+        <v>13977</v>
+      </c>
+      <c r="H141">
+        <v>6</v>
+      </c>
+      <c r="I141">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>140</v>
       </c>
@@ -4008,8 +5286,17 @@
       <c r="F142">
         <v>0</v>
       </c>
-    </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G142">
+        <v>19677</v>
+      </c>
+      <c r="H142">
+        <v>2</v>
+      </c>
+      <c r="I142">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="143" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>141</v>
       </c>
@@ -4028,8 +5315,17 @@
       <c r="F143">
         <v>0</v>
       </c>
-    </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G143">
+        <v>6886</v>
+      </c>
+      <c r="H143">
+        <v>6</v>
+      </c>
+      <c r="I143">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>142</v>
       </c>
@@ -4048,8 +5344,17 @@
       <c r="F144">
         <v>0</v>
       </c>
-    </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G144">
+        <v>19263</v>
+      </c>
+      <c r="H144">
+        <v>6</v>
+      </c>
+      <c r="I144">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>143</v>
       </c>
@@ -4068,8 +5373,17 @@
       <c r="F145">
         <v>0</v>
       </c>
-    </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G145">
+        <v>16612</v>
+      </c>
+      <c r="H145">
+        <v>6</v>
+      </c>
+      <c r="I145">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>144</v>
       </c>
@@ -4088,8 +5402,17 @@
       <c r="F146">
         <v>0</v>
       </c>
-    </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G146">
+        <v>16801</v>
+      </c>
+      <c r="H146">
+        <v>8</v>
+      </c>
+      <c r="I146">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>145</v>
       </c>
@@ -4108,8 +5431,17 @@
       <c r="F147">
         <v>0</v>
       </c>
-    </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G147">
+        <v>75643</v>
+      </c>
+      <c r="H147">
+        <v>1</v>
+      </c>
+      <c r="I147">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="148" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>146</v>
       </c>
@@ -4128,8 +5460,17 @@
       <c r="F148">
         <v>0</v>
       </c>
-    </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G148">
+        <v>23384</v>
+      </c>
+      <c r="H148">
+        <v>6</v>
+      </c>
+      <c r="I148">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>147</v>
       </c>
@@ -4148,8 +5489,17 @@
       <c r="F149">
         <v>0</v>
       </c>
-    </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G149">
+        <v>3302</v>
+      </c>
+      <c r="H149">
+        <v>9</v>
+      </c>
+      <c r="I149">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>148</v>
       </c>
@@ -4168,8 +5518,17 @@
       <c r="F150">
         <v>0</v>
       </c>
-    </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G150">
+        <v>11531</v>
+      </c>
+      <c r="H150">
+        <v>8</v>
+      </c>
+      <c r="I150">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>149</v>
       </c>
@@ -4188,8 +5547,17 @@
       <c r="F151">
         <v>0</v>
       </c>
-    </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G151">
+        <v>19301</v>
+      </c>
+      <c r="H151">
+        <v>7</v>
+      </c>
+      <c r="I151">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>150</v>
       </c>
@@ -4208,8 +5576,17 @@
       <c r="F152">
         <v>0</v>
       </c>
-    </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G152">
+        <v>82</v>
+      </c>
+      <c r="H152">
+        <v>9</v>
+      </c>
+      <c r="I152">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>151</v>
       </c>
@@ -4228,8 +5605,17 @@
       <c r="F153">
         <v>1</v>
       </c>
-    </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G153">
+        <v>278831</v>
+      </c>
+      <c r="H153">
+        <v>2</v>
+      </c>
+      <c r="I153">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="154" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>152</v>
       </c>
@@ -4248,8 +5634,17 @@
       <c r="F154">
         <v>0</v>
       </c>
-    </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G154">
+        <v>5915</v>
+      </c>
+      <c r="H154">
+        <v>2</v>
+      </c>
+      <c r="I154">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="155" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>153</v>
       </c>
@@ -4268,8 +5663,17 @@
       <c r="F155">
         <v>0</v>
       </c>
-    </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G155">
+        <v>8283</v>
+      </c>
+      <c r="H155">
+        <v>7</v>
+      </c>
+      <c r="I155">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>154</v>
       </c>
@@ -4288,8 +5692,17 @@
       <c r="F156">
         <v>1</v>
       </c>
-    </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G156">
+        <v>234906</v>
+      </c>
+      <c r="H156">
+        <v>2</v>
+      </c>
+      <c r="I156">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="157" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>155</v>
       </c>
@@ -4308,8 +5721,17 @@
       <c r="F157">
         <v>0</v>
       </c>
-    </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G157">
+        <v>707</v>
+      </c>
+      <c r="H157">
+        <v>9</v>
+      </c>
+      <c r="I157">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>156</v>
       </c>
@@ -4328,8 +5750,17 @@
       <c r="F158">
         <v>0</v>
       </c>
-    </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G158">
+        <v>13664</v>
+      </c>
+      <c r="H158">
+        <v>6</v>
+      </c>
+      <c r="I158">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="159" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>157</v>
       </c>
@@ -4348,8 +5779,17 @@
       <c r="F159">
         <v>0</v>
       </c>
-    </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G159">
+        <v>10546</v>
+      </c>
+      <c r="H159">
+        <v>8</v>
+      </c>
+      <c r="I159">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>158</v>
       </c>
@@ -4368,8 +5808,17 @@
       <c r="F160">
         <v>0</v>
       </c>
-    </row>
-    <row r="161" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G160">
+        <v>4799</v>
+      </c>
+      <c r="H160">
+        <v>3</v>
+      </c>
+      <c r="I160">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="161" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>159</v>
       </c>
@@ -4388,8 +5837,17 @@
       <c r="F161">
         <v>0</v>
       </c>
-    </row>
-    <row r="162" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G161">
+        <v>4012</v>
+      </c>
+      <c r="H161">
+        <v>9</v>
+      </c>
+      <c r="I161">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="162" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>160</v>
       </c>
@@ -4408,8 +5866,17 @@
       <c r="F162">
         <v>0</v>
       </c>
-    </row>
-    <row r="163" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G162">
+        <v>36702</v>
+      </c>
+      <c r="H162">
+        <v>4</v>
+      </c>
+      <c r="I162">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>161</v>
       </c>
@@ -4428,8 +5895,17 @@
       <c r="F163">
         <v>0</v>
       </c>
-    </row>
-    <row r="164" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G163">
+        <v>54258</v>
+      </c>
+      <c r="H163">
+        <v>5</v>
+      </c>
+      <c r="I163">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="164" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>162</v>
       </c>
@@ -4448,8 +5924,17 @@
       <c r="F164">
         <v>0</v>
       </c>
-    </row>
-    <row r="165" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G164">
+        <v>46006</v>
+      </c>
+      <c r="H164">
+        <v>1</v>
+      </c>
+      <c r="I164">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="165" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>163</v>
       </c>
@@ -4468,8 +5953,17 @@
       <c r="F165">
         <v>0</v>
       </c>
-    </row>
-    <row r="166" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G165">
+        <v>2242</v>
+      </c>
+      <c r="H165">
+        <v>9</v>
+      </c>
+      <c r="I165">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="166" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>164</v>
       </c>
@@ -4488,8 +5982,17 @@
       <c r="F166">
         <v>0</v>
       </c>
-    </row>
-    <row r="167" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G166">
+        <v>136872</v>
+      </c>
+      <c r="H166">
+        <v>3</v>
+      </c>
+      <c r="I166">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="167" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>165</v>
       </c>
@@ -4508,8 +6011,17 @@
       <c r="F167">
         <v>0</v>
       </c>
-    </row>
-    <row r="168" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G167">
+        <v>24757</v>
+      </c>
+      <c r="H167">
+        <v>6</v>
+      </c>
+      <c r="I167">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="168" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>166</v>
       </c>
@@ -4528,8 +6040,17 @@
       <c r="F168">
         <v>0</v>
       </c>
-    </row>
-    <row r="169" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G168">
+        <v>4936</v>
+      </c>
+      <c r="H168">
+        <v>9</v>
+      </c>
+      <c r="I168">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="169" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>167</v>
       </c>
@@ -4548,8 +6069,17 @@
       <c r="F169">
         <v>0</v>
       </c>
-    </row>
-    <row r="170" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G169">
+        <v>9403</v>
+      </c>
+      <c r="H169">
+        <v>7</v>
+      </c>
+      <c r="I169">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="170" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>168</v>
       </c>
@@ -4568,8 +6098,17 @@
       <c r="F170">
         <v>0</v>
       </c>
-    </row>
-    <row r="171" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G170">
+        <v>19719</v>
+      </c>
+      <c r="H170">
+        <v>6</v>
+      </c>
+      <c r="I170">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="171" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>169</v>
       </c>
@@ -4588,8 +6127,17 @@
       <c r="F171">
         <v>2</v>
       </c>
-    </row>
-    <row r="172" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G171">
+        <v>455746</v>
+      </c>
+      <c r="H171">
+        <v>1</v>
+      </c>
+      <c r="I171">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="172" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>170</v>
       </c>
@@ -4608,8 +6156,17 @@
       <c r="F172">
         <v>0</v>
       </c>
-    </row>
-    <row r="173" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G172">
+        <v>21904</v>
+      </c>
+      <c r="H172">
+        <v>7</v>
+      </c>
+      <c r="I172">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="173" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>171</v>
       </c>
@@ -4628,8 +6185,17 @@
       <c r="F173">
         <v>0</v>
       </c>
-    </row>
-    <row r="174" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G173">
+        <v>12934</v>
+      </c>
+      <c r="H173">
+        <v>6</v>
+      </c>
+      <c r="I173">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="174" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>172</v>
       </c>
@@ -4648,8 +6214,17 @@
       <c r="F174">
         <v>0</v>
       </c>
-    </row>
-    <row r="175" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G174">
+        <v>1210</v>
+      </c>
+      <c r="H174">
+        <v>9</v>
+      </c>
+      <c r="I174">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="175" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>173</v>
       </c>
@@ -4668,8 +6243,17 @@
       <c r="F175">
         <v>0</v>
       </c>
-    </row>
-    <row r="176" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G175">
+        <v>64524</v>
+      </c>
+      <c r="H175">
+        <v>5</v>
+      </c>
+      <c r="I175">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="176" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>174</v>
       </c>
@@ -4688,8 +6272,17 @@
       <c r="F176">
         <v>0</v>
       </c>
-    </row>
-    <row r="177" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G176">
+        <v>47735</v>
+      </c>
+      <c r="H176">
+        <v>4</v>
+      </c>
+      <c r="I176">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="177" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>175</v>
       </c>
@@ -4708,8 +6301,17 @@
       <c r="F177">
         <v>0</v>
       </c>
-    </row>
-    <row r="178" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G177">
+        <v>14445</v>
+      </c>
+      <c r="H177">
+        <v>2</v>
+      </c>
+      <c r="I177">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="178" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>176</v>
       </c>
@@ -4728,8 +6330,17 @@
       <c r="F178">
         <v>0</v>
       </c>
-    </row>
-    <row r="179" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G178">
+        <v>15216</v>
+      </c>
+      <c r="H178">
+        <v>6</v>
+      </c>
+      <c r="I178">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="179" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>177</v>
       </c>
@@ -4748,8 +6359,17 @@
       <c r="F179">
         <v>1</v>
       </c>
-    </row>
-    <row r="180" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G179">
+        <v>340223</v>
+      </c>
+      <c r="H179">
+        <v>2</v>
+      </c>
+      <c r="I179">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="180" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>178</v>
       </c>
@@ -4768,8 +6388,17 @@
       <c r="F180">
         <v>0</v>
       </c>
-    </row>
-    <row r="181" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G180">
+        <v>10223</v>
+      </c>
+      <c r="H180">
+        <v>7</v>
+      </c>
+      <c r="I180">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="181" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>179</v>
       </c>
@@ -4788,8 +6417,17 @@
       <c r="F181">
         <v>0</v>
       </c>
-    </row>
-    <row r="182" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G181">
+        <v>2052</v>
+      </c>
+      <c r="H181">
+        <v>2</v>
+      </c>
+      <c r="I181">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="182" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>180</v>
       </c>
@@ -4808,8 +6446,17 @@
       <c r="F182">
         <v>0</v>
       </c>
-    </row>
-    <row r="183" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G182">
+        <v>81837</v>
+      </c>
+      <c r="H182">
+        <v>2</v>
+      </c>
+      <c r="I182">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="183" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>181</v>
       </c>
@@ -4828,8 +6475,17 @@
       <c r="F183">
         <v>0</v>
       </c>
-    </row>
-    <row r="184" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G183">
+        <v>28111</v>
+      </c>
+      <c r="H183">
+        <v>6</v>
+      </c>
+      <c r="I183">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="184" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>182</v>
       </c>
@@ -4848,8 +6504,17 @@
       <c r="F184">
         <v>0</v>
       </c>
-    </row>
-    <row r="185" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G184">
+        <v>23796</v>
+      </c>
+      <c r="H184">
+        <v>6</v>
+      </c>
+      <c r="I184">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="185" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>183</v>
       </c>
@@ -4868,8 +6533,17 @@
       <c r="F185">
         <v>0</v>
       </c>
-    </row>
-    <row r="186" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G185">
+        <v>116927</v>
+      </c>
+      <c r="H185">
+        <v>1</v>
+      </c>
+      <c r="I185">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="186" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>184</v>
       </c>
@@ -4888,8 +6562,17 @@
       <c r="F186">
         <v>0</v>
       </c>
-    </row>
-    <row r="187" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G186">
+        <v>10269</v>
+      </c>
+      <c r="H186">
+        <v>7</v>
+      </c>
+      <c r="I186">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="187" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>185</v>
       </c>
@@ -4908,8 +6591,17 @@
       <c r="F187">
         <v>0</v>
       </c>
-    </row>
-    <row r="188" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G187">
+        <v>15507</v>
+      </c>
+      <c r="H187">
+        <v>7</v>
+      </c>
+      <c r="I187">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="188" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>186</v>
       </c>
@@ -4928,8 +6620,17 @@
       <c r="F188">
         <v>0</v>
       </c>
-    </row>
-    <row r="189" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G188">
+        <v>45413</v>
+      </c>
+      <c r="H188">
+        <v>6</v>
+      </c>
+      <c r="I188">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="189" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>187</v>
       </c>
@@ -4948,8 +6649,17 @@
       <c r="F189">
         <v>0</v>
       </c>
-    </row>
-    <row r="190" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G189">
+        <v>121073</v>
+      </c>
+      <c r="H189">
+        <v>2</v>
+      </c>
+      <c r="I189">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="190" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>188</v>
       </c>
@@ -4968,8 +6678,17 @@
       <c r="F190">
         <v>0</v>
       </c>
-    </row>
-    <row r="191" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G190">
+        <v>7818</v>
+      </c>
+      <c r="H190">
+        <v>7</v>
+      </c>
+      <c r="I190">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="191" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>189</v>
       </c>
@@ -4988,8 +6707,17 @@
       <c r="F191">
         <v>0</v>
       </c>
-    </row>
-    <row r="192" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G191">
+        <v>10914</v>
+      </c>
+      <c r="H191">
+        <v>8</v>
+      </c>
+      <c r="I191">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="192" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>190</v>
       </c>
@@ -5008,8 +6736,17 @@
       <c r="F192">
         <v>0</v>
       </c>
-    </row>
-    <row r="193" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G192">
+        <v>120725</v>
+      </c>
+      <c r="H192">
+        <v>2</v>
+      </c>
+      <c r="I192">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="193" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>191</v>
       </c>
@@ -5028,8 +6765,17 @@
       <c r="F193">
         <v>0</v>
       </c>
-    </row>
-    <row r="194" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G193">
+        <v>3367</v>
+      </c>
+      <c r="H193">
+        <v>6</v>
+      </c>
+      <c r="I193">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="194" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>192</v>
       </c>
@@ -5048,8 +6794,17 @@
       <c r="F194">
         <v>0</v>
       </c>
-    </row>
-    <row r="195" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G194">
+        <v>3309</v>
+      </c>
+      <c r="H194">
+        <v>9</v>
+      </c>
+      <c r="I194">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="195" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>193</v>
       </c>
@@ -5068,8 +6823,17 @@
       <c r="F195">
         <v>0</v>
       </c>
-    </row>
-    <row r="196" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G195">
+        <v>12860</v>
+      </c>
+      <c r="H195">
+        <v>6</v>
+      </c>
+      <c r="I195">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="196" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>194</v>
       </c>
@@ -5088,8 +6852,17 @@
       <c r="F196">
         <v>0</v>
       </c>
-    </row>
-    <row r="197" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G196">
+        <v>13783</v>
+      </c>
+      <c r="H196">
+        <v>7</v>
+      </c>
+      <c r="I196">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="197" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>195</v>
       </c>
@@ -5108,8 +6881,17 @@
       <c r="F197">
         <v>0</v>
       </c>
-    </row>
-    <row r="198" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G197">
+        <v>7383</v>
+      </c>
+      <c r="H197">
+        <v>6</v>
+      </c>
+      <c r="I197">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="198" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>196</v>
       </c>
@@ -5128,8 +6910,17 @@
       <c r="F198">
         <v>0</v>
       </c>
-    </row>
-    <row r="199" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G198">
+        <v>929</v>
+      </c>
+      <c r="H198">
+        <v>9</v>
+      </c>
+      <c r="I198">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="199" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>197</v>
       </c>
@@ -5148,8 +6939,17 @@
       <c r="F199">
         <v>0</v>
       </c>
-    </row>
-    <row r="200" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G199">
+        <v>16622</v>
+      </c>
+      <c r="H199">
+        <v>3</v>
+      </c>
+      <c r="I199">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="200" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>198</v>
       </c>
@@ -5168,8 +6968,17 @@
       <c r="F200">
         <v>0</v>
       </c>
-    </row>
-    <row r="201" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G200">
+        <v>78337</v>
+      </c>
+      <c r="H200">
+        <v>1</v>
+      </c>
+      <c r="I200">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="201" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>199</v>
       </c>
@@ -5188,8 +6997,17 @@
       <c r="F201">
         <v>0</v>
       </c>
-    </row>
-    <row r="202" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G201">
+        <v>10501</v>
+      </c>
+      <c r="H201">
+        <v>6</v>
+      </c>
+      <c r="I201">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="202" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
         <v>200</v>
       </c>
@@ -5208,8 +7026,17 @@
       <c r="F202">
         <v>0</v>
       </c>
-    </row>
-    <row r="203" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G202">
+        <v>53330</v>
+      </c>
+      <c r="H202">
+        <v>3</v>
+      </c>
+      <c r="I202">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="203" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
         <v>201</v>
       </c>
@@ -5228,8 +7055,17 @@
       <c r="F203">
         <v>0</v>
       </c>
-    </row>
-    <row r="204" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G203">
+        <v>10834</v>
+      </c>
+      <c r="H203">
+        <v>8</v>
+      </c>
+      <c r="I203">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="204" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
         <v>202</v>
       </c>
@@ -5248,8 +7084,17 @@
       <c r="F204">
         <v>0</v>
       </c>
-    </row>
-    <row r="205" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G204">
+        <v>8865</v>
+      </c>
+      <c r="H204">
+        <v>9</v>
+      </c>
+      <c r="I204">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="205" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
         <v>203</v>
       </c>
@@ -5268,8 +7113,17 @@
       <c r="F205">
         <v>0</v>
       </c>
-    </row>
-    <row r="206" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G205">
+        <v>26384</v>
+      </c>
+      <c r="H205">
+        <v>8</v>
+      </c>
+      <c r="I205">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="206" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
         <v>204</v>
       </c>
@@ -5288,8 +7142,17 @@
       <c r="F206">
         <v>0</v>
       </c>
-    </row>
-    <row r="207" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G206">
+        <v>64804</v>
+      </c>
+      <c r="H206">
+        <v>2</v>
+      </c>
+      <c r="I206">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="207" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
         <v>205</v>
       </c>
@@ -5308,8 +7171,17 @@
       <c r="F207">
         <v>0</v>
       </c>
-    </row>
-    <row r="208" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G207">
+        <v>6131</v>
+      </c>
+      <c r="H207">
+        <v>7</v>
+      </c>
+      <c r="I207">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="208" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
         <v>206</v>
       </c>
@@ -5328,8 +7200,17 @@
       <c r="F208">
         <v>0</v>
       </c>
-    </row>
-    <row r="209" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G208">
+        <v>3461</v>
+      </c>
+      <c r="H208">
+        <v>8</v>
+      </c>
+      <c r="I208">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="209" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
         <v>207</v>
       </c>
@@ -5348,8 +7229,17 @@
       <c r="F209">
         <v>0</v>
       </c>
-    </row>
-    <row r="210" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G209">
+        <v>16921</v>
+      </c>
+      <c r="H209">
+        <v>7</v>
+      </c>
+      <c r="I209">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="210" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
         <v>208</v>
       </c>
@@ -5368,8 +7258,17 @@
       <c r="F210">
         <v>0</v>
       </c>
-    </row>
-    <row r="211" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G210">
+        <v>3378</v>
+      </c>
+      <c r="H210">
+        <v>8</v>
+      </c>
+      <c r="I210">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="211" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
         <v>209</v>
       </c>
@@ -5388,8 +7287,17 @@
       <c r="F211">
         <v>0</v>
       </c>
-    </row>
-    <row r="212" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G211">
+        <v>25448</v>
+      </c>
+      <c r="H211">
+        <v>7</v>
+      </c>
+      <c r="I211">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="212" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
         <v>210</v>
       </c>
@@ -5408,8 +7316,17 @@
       <c r="F212">
         <v>0</v>
       </c>
-    </row>
-    <row r="213" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G212">
+        <v>3034</v>
+      </c>
+      <c r="H212">
+        <v>9</v>
+      </c>
+      <c r="I212">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="213" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
         <v>211</v>
       </c>
@@ -5428,8 +7345,17 @@
       <c r="F213">
         <v>1</v>
       </c>
-    </row>
-    <row r="214" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G213">
+        <v>209714</v>
+      </c>
+      <c r="H213">
+        <v>3</v>
+      </c>
+      <c r="I213">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="214" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
         <v>212</v>
       </c>
@@ -5448,8 +7374,17 @@
       <c r="F214">
         <v>0</v>
       </c>
-    </row>
-    <row r="215" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G214">
+        <v>8490</v>
+      </c>
+      <c r="H214">
+        <v>1</v>
+      </c>
+      <c r="I214">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="215" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
         <v>213</v>
       </c>
@@ -5468,8 +7403,17 @@
       <c r="F215">
         <v>0</v>
       </c>
-    </row>
-    <row r="216" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G215">
+        <v>60968</v>
+      </c>
+      <c r="H215">
+        <v>4</v>
+      </c>
+      <c r="I215">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="216" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
         <v>214</v>
       </c>
@@ -5488,8 +7432,17 @@
       <c r="F216">
         <v>0</v>
       </c>
-    </row>
-    <row r="217" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G216">
+        <v>9630</v>
+      </c>
+      <c r="H216">
+        <v>7</v>
+      </c>
+      <c r="I216">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="217" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
         <v>215</v>
       </c>
@@ -5508,8 +7461,17 @@
       <c r="F217">
         <v>0</v>
       </c>
-    </row>
-    <row r="218" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G217">
+        <v>1143</v>
+      </c>
+      <c r="H217">
+        <v>8</v>
+      </c>
+      <c r="I217">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="218" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
         <v>216</v>
       </c>
@@ -5528,8 +7490,17 @@
       <c r="F218">
         <v>0</v>
       </c>
-    </row>
-    <row r="219" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G218">
+        <v>1490</v>
+      </c>
+      <c r="H218">
+        <v>9</v>
+      </c>
+      <c r="I218">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="219" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
         <v>217</v>
       </c>
@@ -5548,8 +7519,17 @@
       <c r="F219">
         <v>0</v>
       </c>
-    </row>
-    <row r="220" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G219">
+        <v>4128</v>
+      </c>
+      <c r="H219">
+        <v>7</v>
+      </c>
+      <c r="I219">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="220" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
         <v>218</v>
       </c>
@@ -5568,8 +7548,17 @@
       <c r="F220">
         <v>0</v>
       </c>
-    </row>
-    <row r="221" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G220">
+        <v>7854</v>
+      </c>
+      <c r="H220">
+        <v>6</v>
+      </c>
+      <c r="I220">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="221" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
         <v>219</v>
       </c>
@@ -5588,8 +7577,17 @@
       <c r="F221">
         <v>2</v>
       </c>
-    </row>
-    <row r="222" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G221">
+        <v>1809034</v>
+      </c>
+      <c r="H221">
+        <v>1</v>
+      </c>
+      <c r="I221">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="222" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
         <v>220</v>
       </c>
@@ -5608,8 +7606,17 @@
       <c r="F222">
         <v>0</v>
       </c>
-    </row>
-    <row r="223" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G222">
+        <v>131506</v>
+      </c>
+      <c r="H222">
+        <v>3</v>
+      </c>
+      <c r="I222">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="223" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
         <v>221</v>
       </c>
@@ -5628,8 +7635,17 @@
       <c r="F223">
         <v>0</v>
       </c>
-    </row>
-    <row r="224" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G223">
+        <v>984</v>
+      </c>
+      <c r="H223">
+        <v>9</v>
+      </c>
+      <c r="I223">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="224" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
         <v>222</v>
       </c>
@@ -5648,8 +7664,17 @@
       <c r="F224">
         <v>0</v>
       </c>
-    </row>
-    <row r="225" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G224">
+        <v>12651</v>
+      </c>
+      <c r="H224">
+        <v>6</v>
+      </c>
+      <c r="I224">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="225" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
         <v>223</v>
       </c>
@@ -5668,8 +7693,17 @@
       <c r="F225">
         <v>0</v>
       </c>
-    </row>
-    <row r="226" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G225">
+        <v>1641</v>
+      </c>
+      <c r="H225">
+        <v>9</v>
+      </c>
+      <c r="I225">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="226" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
         <v>224</v>
       </c>
@@ -5688,8 +7722,17 @@
       <c r="F226">
         <v>0</v>
       </c>
-    </row>
-    <row r="227" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G226">
+        <v>32334</v>
+      </c>
+      <c r="H226">
+        <v>7</v>
+      </c>
+      <c r="I226">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="227" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
         <v>225</v>
       </c>
@@ -5708,8 +7751,17 @@
       <c r="F227">
         <v>0</v>
       </c>
-    </row>
-    <row r="228" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G227">
+        <v>110224</v>
+      </c>
+      <c r="H227">
+        <v>3</v>
+      </c>
+      <c r="I227">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="228" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
         <v>226</v>
       </c>
@@ -5728,8 +7780,17 @@
       <c r="F228">
         <v>1</v>
       </c>
-    </row>
-    <row r="229" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G228">
+        <v>1024266</v>
+      </c>
+      <c r="H228">
+        <v>1</v>
+      </c>
+      <c r="I228">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="229" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
         <v>227</v>
       </c>
@@ -5748,8 +7809,17 @@
       <c r="F229">
         <v>0</v>
       </c>
-    </row>
-    <row r="230" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G229">
+        <v>14585</v>
+      </c>
+      <c r="H229">
+        <v>7</v>
+      </c>
+      <c r="I229">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="230" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
         <v>228</v>
       </c>
@@ -5768,8 +7838,17 @@
       <c r="F230">
         <v>0</v>
       </c>
-    </row>
-    <row r="231" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G230">
+        <v>21766</v>
+      </c>
+      <c r="H230">
+        <v>6</v>
+      </c>
+      <c r="I230">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="231" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
         <v>229</v>
       </c>
@@ -5788,8 +7867,17 @@
       <c r="F231">
         <v>0</v>
       </c>
-    </row>
-    <row r="232" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G231">
+        <v>39309</v>
+      </c>
+      <c r="H231">
+        <v>3</v>
+      </c>
+      <c r="I231">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="232" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
         <v>230</v>
       </c>
@@ -5808,8 +7896,17 @@
       <c r="F232">
         <v>0</v>
       </c>
-    </row>
-    <row r="233" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G232">
+        <v>3355</v>
+      </c>
+      <c r="H232">
+        <v>8</v>
+      </c>
+      <c r="I232">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="233" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
         <v>231</v>
       </c>
@@ -5828,8 +7925,17 @@
       <c r="F233">
         <v>0</v>
       </c>
-    </row>
-    <row r="234" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G233">
+        <v>26405</v>
+      </c>
+      <c r="H233">
+        <v>6</v>
+      </c>
+      <c r="I233">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="234" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
         <v>232</v>
       </c>
@@ -5848,8 +7954,17 @@
       <c r="F234">
         <v>0</v>
       </c>
-    </row>
-    <row r="235" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G234">
+        <v>48879</v>
+      </c>
+      <c r="H234">
+        <v>5</v>
+      </c>
+      <c r="I234">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="235" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
         <v>233</v>
       </c>
@@ -5868,8 +7983,17 @@
       <c r="F235">
         <v>0</v>
       </c>
-    </row>
-    <row r="236" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G235">
+        <v>52579</v>
+      </c>
+      <c r="H235">
+        <v>6</v>
+      </c>
+      <c r="I235">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="236" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
         <v>234</v>
       </c>
@@ -5888,8 +8012,17 @@
       <c r="F236">
         <v>0</v>
       </c>
-    </row>
-    <row r="237" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G236">
+        <v>86793</v>
+      </c>
+      <c r="H236">
+        <v>3</v>
+      </c>
+      <c r="I236">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="237" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
         <v>235</v>
       </c>
@@ -5908,8 +8041,17 @@
       <c r="F237">
         <v>0</v>
       </c>
-    </row>
-    <row r="238" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G237">
+        <v>67861</v>
+      </c>
+      <c r="H237">
+        <v>4</v>
+      </c>
+      <c r="I237">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="238" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
         <v>236</v>
       </c>
@@ -5928,8 +8070,17 @@
       <c r="F238">
         <v>0</v>
       </c>
-    </row>
-    <row r="239" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G238">
+        <v>43205</v>
+      </c>
+      <c r="H238">
+        <v>1</v>
+      </c>
+      <c r="I238">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="239" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
         <v>237</v>
       </c>
@@ -5948,8 +8099,17 @@
       <c r="F239">
         <v>0</v>
       </c>
-    </row>
-    <row r="240" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G239">
+        <v>10658</v>
+      </c>
+      <c r="H239">
+        <v>6</v>
+      </c>
+      <c r="I239">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="240" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
         <v>238</v>
       </c>
@@ -5968,8 +8128,17 @@
       <c r="F240">
         <v>0</v>
       </c>
-    </row>
-    <row r="241" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G240">
+        <v>33718</v>
+      </c>
+      <c r="H240">
+        <v>6</v>
+      </c>
+      <c r="I240">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="241" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
         <v>239</v>
       </c>
@@ -5988,8 +8157,17 @@
       <c r="F241">
         <v>0</v>
       </c>
-    </row>
-    <row r="242" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G241">
+        <v>250304</v>
+      </c>
+      <c r="H241">
+        <v>2</v>
+      </c>
+      <c r="I241">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="242" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
         <v>240</v>
       </c>
@@ -6008,8 +8186,17 @@
       <c r="F242">
         <v>0</v>
       </c>
-    </row>
-    <row r="243" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G242">
+        <v>41280</v>
+      </c>
+      <c r="H242">
+        <v>4</v>
+      </c>
+      <c r="I242">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="243" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
         <v>241</v>
       </c>
@@ -6028,8 +8215,17 @@
       <c r="F243">
         <v>0</v>
       </c>
-    </row>
-    <row r="244" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G243">
+        <v>5410</v>
+      </c>
+      <c r="H243">
+        <v>9</v>
+      </c>
+      <c r="I243">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="244" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
         <v>242</v>
       </c>
@@ -6048,8 +8244,17 @@
       <c r="F244">
         <v>1</v>
       </c>
-    </row>
-    <row r="245" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G244">
+        <v>131500</v>
+      </c>
+      <c r="H244">
+        <v>3</v>
+      </c>
+      <c r="I244">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="245" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
         <v>243</v>
       </c>
@@ -6068,8 +8273,17 @@
       <c r="F245">
         <v>0</v>
       </c>
-    </row>
-    <row r="246" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G245">
+        <v>13535</v>
+      </c>
+      <c r="H245">
+        <v>6</v>
+      </c>
+      <c r="I245">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="246" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
         <v>244</v>
       </c>
@@ -6088,8 +8302,17 @@
       <c r="F246">
         <v>0</v>
       </c>
-    </row>
-    <row r="247" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G246">
+        <v>22134</v>
+      </c>
+      <c r="H246">
+        <v>6</v>
+      </c>
+      <c r="I246">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="247" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
         <v>245</v>
       </c>
@@ -6108,8 +8331,17 @@
       <c r="F247">
         <v>2</v>
       </c>
-    </row>
-    <row r="248" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G247">
+        <v>422679</v>
+      </c>
+      <c r="H247">
+        <v>1</v>
+      </c>
+      <c r="I247">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="248" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
         <v>246</v>
       </c>
@@ -6128,8 +8360,17 @@
       <c r="F248">
         <v>0</v>
       </c>
-    </row>
-    <row r="249" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G248">
+        <v>42918</v>
+      </c>
+      <c r="H248">
+        <v>1</v>
+      </c>
+      <c r="I248">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="249" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
         <v>247</v>
       </c>
@@ -6148,8 +8389,17 @@
       <c r="F249">
         <v>0</v>
       </c>
-    </row>
-    <row r="250" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G249">
+        <v>7110</v>
+      </c>
+      <c r="H249">
+        <v>6</v>
+      </c>
+      <c r="I249">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="250" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
         <v>248</v>
       </c>
@@ -6168,8 +8418,17 @@
       <c r="F250">
         <v>0</v>
       </c>
-    </row>
-    <row r="251" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G250">
+        <v>59127</v>
+      </c>
+      <c r="H250">
+        <v>1</v>
+      </c>
+      <c r="I250">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="251" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
         <v>249</v>
       </c>
@@ -6188,8 +8447,17 @@
       <c r="F251">
         <v>0</v>
       </c>
-    </row>
-    <row r="252" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G251">
+        <v>41964</v>
+      </c>
+      <c r="H251">
+        <v>6</v>
+      </c>
+      <c r="I251">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="252" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
         <v>250</v>
       </c>
@@ -6208,8 +8476,17 @@
       <c r="F252">
         <v>0</v>
       </c>
-    </row>
-    <row r="253" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G252">
+        <v>7879</v>
+      </c>
+      <c r="H252">
+        <v>7</v>
+      </c>
+      <c r="I252">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="253" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
         <v>251</v>
       </c>
@@ -6228,8 +8505,17 @@
       <c r="F253">
         <v>0</v>
       </c>
-    </row>
-    <row r="254" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G253">
+        <v>18550</v>
+      </c>
+      <c r="H253">
+        <v>7</v>
+      </c>
+      <c r="I253">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="254" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
         <v>252</v>
       </c>
@@ -6248,8 +8534,17 @@
       <c r="F254">
         <v>0</v>
       </c>
-    </row>
-    <row r="255" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G254">
+        <v>14018</v>
+      </c>
+      <c r="H254">
+        <v>6</v>
+      </c>
+      <c r="I254">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="255" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
         <v>253</v>
       </c>
@@ -6266,6 +8561,15 @@
         <v>0</v>
       </c>
       <c r="F255">
+        <v>0</v>
+      </c>
+      <c r="G255">
+        <v>11677</v>
+      </c>
+      <c r="H255">
+        <v>7</v>
+      </c>
+      <c r="I255">
         <v>0</v>
       </c>
     </row>
